--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\Calculate Client Security Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7EB932-2E6C-4CEF-B92B-93F263C5E5F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3117AEC-740F-4692-A63E-ACB6A6D2E61E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>https://acme-test.uipath.com/login</t>
-  </si>
-  <si>
     <t>URL for the ACME System 1 webpage</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>UIPath_Exercise</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -629,11 +629,11 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -661,13 +661,13 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -698,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -706,33 +706,33 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1914,7 +1914,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>37</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\Calculate Client Security Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3117AEC-740F-4692-A63E-ACB6A6D2E61E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F352284-131F-4FF6-86D7-31F04DE1DE98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
